--- a/spreadsheets/Neeko.xlsx
+++ b/spreadsheets/Neeko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46DB0F-36BA-4C89-9A1D-494E49B3A167}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E2E664-4372-4751-8198-7E8E648BAA87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="3150" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="31005" yWindow="2205" windowWidth="21525" windowHeight="11820" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -394,9 +394,6 @@
     <t>stay healthy and try to keep him poked and susceptible to all in so he doesn’t jump in and wreck u</t>
   </si>
   <si>
-    <t>Ex CLG founding member &amp; mid laner</t>
-  </si>
-  <si>
     <t>https://www.twitch.tv/bigfatlp</t>
   </si>
   <si>
@@ -404,6 +401,9 @@
   </si>
   <si>
     <t>https://i.imgur.com/RwNr7Jh.png</t>
+  </si>
+  <si>
+    <t>Ex CLG founding member &amp; mid laner.</t>
   </si>
 </sst>
 </file>
@@ -883,7 +883,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -954,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>67</v>
@@ -984,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>70</v>
@@ -995,7 +995,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1"/>
     </row>
